--- a/fedCUREexpenditures.xlsx
+++ b/fedCUREexpenditures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771A95C-CA1C-47F3-AC8E-5B135A2FAF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328BC75-46A7-4381-B48D-F961536145A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="17280" windowHeight="8994" xr2:uid="{BD32768A-AB64-44D0-96D5-D68339992D9F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BD32768A-AB64-44D0-96D5-D68339992D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>Federal Funds</t>
   </si>
@@ -137,27 +137,18 @@
     <t>Employment and Training Fund</t>
   </si>
   <si>
-    <t>CRRSA/ARPA</t>
-  </si>
-  <si>
     <t>Child Care Development Block Grant</t>
   </si>
   <si>
     <t>Child Care Stabilization Grants</t>
   </si>
   <si>
-    <t>Child Care Entitlement to States</t>
-  </si>
-  <si>
     <t>Public Health</t>
   </si>
   <si>
     <t>Public Health Services</t>
   </si>
   <si>
-    <t>CARES/ARPA</t>
-  </si>
-  <si>
     <t>Health Protection and Lab Capacity</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>UI Trust Fund</t>
   </si>
   <si>
-    <t>Excluded</t>
-  </si>
-  <si>
     <t>Other Fed Rev</t>
   </si>
   <si>
@@ -221,18 +209,6 @@
     <t>LIHEAP</t>
   </si>
   <si>
-    <t>DOR</t>
-  </si>
-  <si>
-    <t>Covid19 Housing Grant Program - Reappropriation</t>
-  </si>
-  <si>
-    <t>COVID Housing Grant Program</t>
-  </si>
-  <si>
-    <t>Support for Long-term Care providers</t>
-  </si>
-  <si>
     <t>Econ Dev</t>
   </si>
   <si>
@@ -243,6 +219,39 @@
   </si>
   <si>
     <t>FY_Received</t>
+  </si>
+  <si>
+    <t>Not used - Full Expenditures(NotjustCOVID fed $)</t>
+  </si>
+  <si>
+    <t>Rev_FY</t>
+  </si>
+  <si>
+    <t>Rev_$</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>ESER 1</t>
+  </si>
+  <si>
+    <t>Formula funding to states to from the CARES Act to respond to school closures, meet student &amp; teacher needs, &amp; improve technology.</t>
+  </si>
+  <si>
+    <t>UI Fund</t>
+  </si>
+  <si>
+    <t>2023+</t>
+  </si>
+  <si>
+    <t>Appropriated and partially spent</t>
+  </si>
+  <si>
+    <t>FY23+</t>
   </si>
 </sst>
 </file>
@@ -283,9 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,24 +612,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26519E7A-CD6D-4FF8-AA8F-CD3C7AE7805F}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="23.69921875" customWidth="1"/>
     <col min="7" max="7" width="37.046875" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -638,18 +652,27 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -669,19 +692,20 @@
       <c r="H2" s="1">
         <v>132</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1"/>
+      <c r="J2">
         <v>1.8</v>
       </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -701,19 +725,20 @@
       <c r="H3" s="1">
         <v>322</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1"/>
+      <c r="J3">
         <v>1.8</v>
       </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -733,19 +758,20 @@
       <c r="H4" s="1">
         <v>260</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1"/>
+      <c r="J4">
         <v>1.8</v>
       </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -765,16 +791,16 @@
       <c r="H5">
         <v>240</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -794,16 +820,16 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -823,19 +849,20 @@
       <c r="H7" s="1">
         <v>337</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1"/>
+      <c r="J7">
         <v>1.8</v>
       </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -855,19 +882,20 @@
       <c r="H8" s="1">
         <v>30</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1"/>
+      <c r="J8">
         <v>1.8</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -887,19 +915,20 @@
       <c r="H9" s="1">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1"/>
+      <c r="J9">
         <v>1.8</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -919,19 +948,20 @@
       <c r="H10" s="1">
         <v>705</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1"/>
+      <c r="J10">
         <v>1.8</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -951,11 +981,11 @@
       <c r="H11">
         <v>295</v>
       </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -972,24 +1002,24 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
       <c r="H12">
-        <v>775</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>332</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1004,21 +1034,21 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>501</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>775</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1033,45 +1063,45 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="H14">
-        <v>775</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>2020</v>
-      </c>
-      <c r="C15">
-        <v>2022</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
       </c>
       <c r="H15">
         <v>267</v>
       </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1081,23 +1111,26 @@
       <c r="C16">
         <v>2022</v>
       </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>175</v>
       </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1111,111 +1144,123 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>115</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>2022</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>2700</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18">
+        <v>677964975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>2021</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19">
-        <v>2021</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>906</v>
       </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19">
+        <v>2250804891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
         <v>48</v>
-      </c>
-      <c r="B20">
-        <v>2022</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H20">
         <v>444</v>
       </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -1224,27 +1269,27 @@
         <v>2022</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21">
         <v>210</v>
       </c>
-      <c r="J21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -1253,27 +1298,27 @@
         <v>2022</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>243</v>
       </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1285,22 +1330,22 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>218</v>
       </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1314,62 +1359,65 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H24">
         <v>304</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <v>569.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>2022</v>
-      </c>
-      <c r="C25">
-        <v>2023</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25">
-        <v>135</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
         <v>2022</v>
       </c>
-      <c r="C26">
-        <v>2023</v>
+      <c r="C26" t="s">
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
@@ -1378,13 +1426,13 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H26">
-        <v>104.1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
+        <v>3000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/fedCUREexpenditures.xlsx
+++ b/fedCUREexpenditures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\OneDrive\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures FY2022\Fiscal-Future-Topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81EFBBA-378F-4EC8-BF4A-A3EB0F2A250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F0E8C-EEEA-4E56-A090-C014AE9E6093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" tabRatio="338" xr2:uid="{BD32768A-AB64-44D0-96D5-D68339992D9F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="338" xr2:uid="{BD32768A-AB64-44D0-96D5-D68339992D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="expenditures" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="424">
   <si>
     <t>Federal Funds</t>
   </si>
@@ -1176,12 +1176,6 @@
     <t>0.664 B received. 574 million for testing/tracing</t>
   </si>
   <si>
-    <t>Mass Transit</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
     <t>800 million expected</t>
   </si>
   <si>
@@ -1312,6 +1306,15 @@
   </si>
   <si>
     <t>Removed</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Capital Projects</t>
+  </si>
+  <si>
+    <t>1000 allocated for capital projects BUT that includes 254 in Capital Projects funds that are expected to arrive, own source revenue? Unclear</t>
   </si>
 </sst>
 </file>
@@ -5363,254 +5366,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DCA6AFE-2F8D-47B1-8D08-42F1C88CF237}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of FY Expenditures" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A90C62D-E510-4B06-BB7C-9EC92A126CA4}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A16:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of FY Expenditures" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9325555B-6E6B-4080-8569-7D03B7393572}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:N30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
@@ -5784,6 +5539,254 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DCA6AFE-2F8D-47B1-8D08-42F1C88CF237}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of FY Expenditures" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A90C62D-E510-4B06-BB7C-9EC92A126CA4}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A16:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of FY Expenditures" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6325,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26519E7A-CD6D-4FF8-AA8F-CD3C7AE7805F}">
   <dimension ref="A1:AO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="71" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -6408,10 +6411,10 @@
         <v>53</v>
       </c>
       <c r="T1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="V1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -6446,7 +6449,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L2" t="s">
         <v>64</v>
@@ -6464,7 +6467,7 @@
         <v>569</v>
       </c>
       <c r="T2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>39</v>
@@ -6485,19 +6488,19 @@
         <v>2022</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AE2" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF2" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>417</v>
       </c>
       <c r="AG2" s="14" t="s">
         <v>26</v>
@@ -6509,15 +6512,15 @@
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
       <c r="AK2" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -6552,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L3" t="s">
         <v>64</v>
@@ -6561,7 +6564,7 @@
         <v>375.9</v>
       </c>
       <c r="O3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P3" t="s">
         <v>50</v>
@@ -6573,7 +6576,7 @@
         <v>569</v>
       </c>
       <c r="T3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V3" s="15" t="s">
         <v>39</v>
@@ -6594,19 +6597,19 @@
         <v>2022</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD3" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG3" s="16" t="s">
         <v>26</v>
@@ -6618,15 +6621,15 @@
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
       <c r="AK3" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM3" s="16"/>
       <c r="AN3" s="16"/>
       <c r="AO3" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -6661,7 +6664,7 @@
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L4" t="s">
         <v>64</v>
@@ -6670,7 +6673,7 @@
         <v>583.5</v>
       </c>
       <c r="O4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P4" t="s">
         <v>50</v>
@@ -6700,16 +6703,16 @@
         <v>2021</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>304</v>
@@ -6723,15 +6726,15 @@
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
       <c r="AK4" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -6781,7 +6784,7 @@
         <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>39</v>
@@ -6802,19 +6805,19 @@
         <v>2021</v>
       </c>
       <c r="AB5" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC5" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AD5" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG5" s="16" t="s">
         <v>26</v>
@@ -6825,15 +6828,15 @@
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
       <c r="AO5" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -6933,7 +6936,7 @@
         <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -7068,7 +7071,7 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L10" t="s">
         <v>369</v>
@@ -7209,7 +7212,7 @@
         <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L13" t="s">
         <v>64</v>
@@ -7230,7 +7233,7 @@
         <v>5050</v>
       </c>
       <c r="T13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -7265,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L14" t="s">
         <v>64</v>
@@ -7274,7 +7277,7 @@
         <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P14" t="s">
         <v>50</v>
@@ -7286,7 +7289,7 @@
         <v>569</v>
       </c>
       <c r="T14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -7321,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L15" t="s">
         <v>64</v>
@@ -7330,7 +7333,7 @@
         <v>1056.0999999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P15" t="s">
         <v>50</v>
@@ -7342,7 +7345,7 @@
         <v>2250</v>
       </c>
       <c r="T15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.55000000000000004">
@@ -7377,7 +7380,7 @@
         <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L16" t="s">
         <v>64</v>
@@ -7387,10 +7390,10 @@
         <v>30.589262000000002</v>
       </c>
       <c r="N16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P16" t="s">
         <v>50</v>
@@ -7402,7 +7405,7 @@
         <v>2250</v>
       </c>
       <c r="T16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7437,7 +7440,7 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L17" t="s">
         <v>64</v>
@@ -7447,10 +7450,10 @@
         <v>9.8544450000000001</v>
       </c>
       <c r="N17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P17" t="s">
         <v>50</v>
@@ -7462,7 +7465,7 @@
         <v>2250</v>
       </c>
       <c r="T17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7538,7 +7541,7 @@
         <v>361</v>
       </c>
       <c r="H19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -7547,7 +7550,7 @@
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L19" t="s">
         <v>31</v>
@@ -7567,16 +7570,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E20">
         <v>2022</v>
@@ -7585,31 +7588,34 @@
         <v>2023</v>
       </c>
       <c r="G20" t="s">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L20" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="M20">
-        <v>1000</v>
+        <v>746</v>
+      </c>
+      <c r="O20" t="s">
+        <v>423</v>
       </c>
       <c r="P20" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="Q20" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="T20" t="s">
         <v>375</v>
@@ -7647,16 +7653,16 @@
         <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M21">
         <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P21" t="s">
         <v>359</v>
@@ -7668,7 +7674,7 @@
         <v>3.5190000000000001</v>
       </c>
       <c r="T21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7703,10 +7709,10 @@
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M22">
         <v>132</v>
@@ -7986,7 +7992,7 @@
         <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M27" s="1">
         <v>221</v>
@@ -8052,10 +8058,10 @@
         <v>1.8</v>
       </c>
       <c r="P28" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q28" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="R28">
         <v>3.5190000000000001</v>
@@ -8204,22 +8210,25 @@
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="L31" t="s">
+        <v>391</v>
       </c>
       <c r="M31">
         <v>1005</v>
       </c>
       <c r="P31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R31">
         <v>3.5190000000000001</v>
@@ -8260,7 +8269,7 @@
         <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M32">
         <v>19</v>
@@ -8322,10 +8331,10 @@
         <v>53</v>
       </c>
       <c r="P33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="R33">
         <v>3.5190000000000001</v>
@@ -8360,22 +8369,25 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="L34" t="s">
+        <v>391</v>
       </c>
       <c r="M34">
         <v>174</v>
       </c>
       <c r="P34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R34">
         <v>3.5190000000000001</v>
@@ -8422,7 +8434,7 @@
         <v>686</v>
       </c>
       <c r="N35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P35" t="s">
         <v>48</v>
@@ -8434,7 +8446,7 @@
         <v>8.1270000000000007</v>
       </c>
       <c r="T35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8478,7 +8490,7 @@
         <v>251</v>
       </c>
       <c r="N36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P36" t="s">
         <v>48</v>
@@ -8490,7 +8502,7 @@
         <v>8.1270000000000007</v>
       </c>
       <c r="T36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8587,7 +8599,7 @@
         <v>175</v>
       </c>
       <c r="N38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P38" t="s">
         <v>359</v>
@@ -8599,7 +8611,7 @@
         <v>8.1270000000000007</v>
       </c>
       <c r="T38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8643,7 +8655,7 @@
         <v>115</v>
       </c>
       <c r="N39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P39" t="s">
         <v>359</v>
@@ -8655,7 +8667,7 @@
         <v>8.1270000000000007</v>
       </c>
       <c r="T39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8746,7 +8758,7 @@
         <v>368</v>
       </c>
       <c r="M41">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="P41" t="s">
         <v>57</v>
@@ -8758,7 +8770,7 @@
         <v>8.1270000000000007</v>
       </c>
       <c r="T41" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8850,16 +8862,16 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -9194,10 +9206,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>43</v>
@@ -9405,7 +9417,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24">
         <v>1005</v>
@@ -9524,7 +9536,7 @@
         <v>1000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19">
